--- a/2)国連決議/2)国連決議_練習用.xlsx
+++ b/2)国連決議/2)国連決議_練習用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0920334\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A24BC7-C754-41C4-888A-086328BC7179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52A6BBB-7892-4F99-9550-C3D3A0226C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19050" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="態度表明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ISOコード">ISOコード!$B$2:$D$250</definedName>
+    <definedName name="ISOコード表">ISOコード!$B$2:$D$250</definedName>
     <definedName name="対照表">態度表明!$B$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -6298,8 +6298,8 @@
   </sheetPr>
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView topLeftCell="B225" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D250"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="19.8"/>
@@ -6333,7 +6333,7 @@
         <v>712</v>
       </c>
       <c r="C2" s="13" t="str">
-        <f>UPPER(B2)</f>
+        <f t="shared" ref="C2:C65" si="0">UPPER(B2)</f>
         <v>ARUBA</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -6348,7 +6348,7 @@
         <v>226</v>
       </c>
       <c r="C3" s="13" t="str">
-        <f>UPPER(B3)</f>
+        <f t="shared" si="0"/>
         <v>AFGHANISTAN</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -6363,7 +6363,7 @@
         <v>307</v>
       </c>
       <c r="C4" s="13" t="str">
-        <f>UPPER(B4)</f>
+        <f t="shared" si="0"/>
         <v>ANGOLA</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -6378,7 +6378,7 @@
         <v>716</v>
       </c>
       <c r="C5" s="13" t="str">
-        <f>UPPER(B5)</f>
+        <f t="shared" si="0"/>
         <v>ANGUILLA</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -6393,7 +6393,7 @@
         <v>720</v>
       </c>
       <c r="C6" s="13" t="str">
-        <f>UPPER(B6)</f>
+        <f t="shared" si="0"/>
         <v>ÅLAND ISLANDS</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -6408,7 +6408,7 @@
         <v>419</v>
       </c>
       <c r="C7" s="13" t="str">
-        <f>UPPER(B7)</f>
+        <f t="shared" si="0"/>
         <v>ALBANIA</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -6423,7 +6423,7 @@
         <v>229</v>
       </c>
       <c r="C8" s="13" t="str">
-        <f>UPPER(B8)</f>
+        <f t="shared" si="0"/>
         <v>ANDORRA</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -6438,7 +6438,7 @@
         <v>431</v>
       </c>
       <c r="C9" s="13" t="str">
-        <f>UPPER(B9)</f>
+        <f t="shared" si="0"/>
         <v>UNITED ARAB EMIRATES</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -6453,7 +6453,7 @@
         <v>577</v>
       </c>
       <c r="C10" s="13" t="str">
-        <f>UPPER(B10)</f>
+        <f t="shared" si="0"/>
         <v>ARGENTINA</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -6468,7 +6468,7 @@
         <v>400</v>
       </c>
       <c r="C11" s="13" t="str">
-        <f>UPPER(B11)</f>
+        <f t="shared" si="0"/>
         <v>ARMENIA</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -6483,7 +6483,7 @@
         <v>718</v>
       </c>
       <c r="C12" s="13" t="str">
-        <f>UPPER(B12)</f>
+        <f t="shared" si="0"/>
         <v>AMERICAN SAMOA</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -6498,7 +6498,7 @@
         <v>714</v>
       </c>
       <c r="C13" s="13" t="str">
-        <f>UPPER(B13)</f>
+        <f t="shared" si="0"/>
         <v>ANTARCTICA</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -6513,7 +6513,7 @@
         <v>674</v>
       </c>
       <c r="C14" s="13" t="str">
-        <f>UPPER(B14)</f>
+        <f t="shared" si="0"/>
         <v>FRENCH SOUTHERN TERRITORIES</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -6528,7 +6528,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="13" t="str">
-        <f>UPPER(B15)</f>
+        <f t="shared" si="0"/>
         <v>ANTIGUA AND BARBUDA</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -6543,7 +6543,7 @@
         <v>119</v>
       </c>
       <c r="C16" s="13" t="str">
-        <f>UPPER(B16)</f>
+        <f t="shared" si="0"/>
         <v>AUSTRALIA</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -6558,7 +6558,7 @@
         <v>343</v>
       </c>
       <c r="C17" s="13" t="str">
-        <f>UPPER(B17)</f>
+        <f t="shared" si="0"/>
         <v>AUSTRIA</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -6573,7 +6573,7 @@
         <v>416</v>
       </c>
       <c r="C18" s="13" t="str">
-        <f>UPPER(B18)</f>
+        <f t="shared" si="0"/>
         <v>AZERBAIJAN</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -6588,7 +6588,7 @@
         <v>241</v>
       </c>
       <c r="C19" s="13" t="str">
-        <f>UPPER(B19)</f>
+        <f t="shared" si="0"/>
         <v>BURUNDI</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -6603,7 +6603,7 @@
         <v>428</v>
       </c>
       <c r="C20" s="13" t="str">
-        <f>UPPER(B20)</f>
+        <f t="shared" si="0"/>
         <v>BELGIUM</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -6618,7 +6618,7 @@
         <v>310</v>
       </c>
       <c r="C21" s="13" t="str">
-        <f>UPPER(B21)</f>
+        <f t="shared" si="0"/>
         <v>BENIN</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -6633,7 +6633,7 @@
         <v>706</v>
       </c>
       <c r="C22" s="13" t="str">
-        <f>UPPER(B22)</f>
+        <f t="shared" si="0"/>
         <v>BONAIRE, SINT EUSTATIUS AND SABA</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -6648,7 +6648,7 @@
         <v>172</v>
       </c>
       <c r="C23" s="13" t="str">
-        <f>UPPER(B23)</f>
+        <f t="shared" si="0"/>
         <v>BURKINA FASO</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -6663,7 +6663,7 @@
         <v>232</v>
       </c>
       <c r="C24" s="13" t="str">
-        <f>UPPER(B24)</f>
+        <f t="shared" si="0"/>
         <v>BANGLADESH</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -6678,7 +6678,7 @@
         <v>286</v>
       </c>
       <c r="C25" s="13" t="str">
-        <f>UPPER(B25)</f>
+        <f t="shared" si="0"/>
         <v>BULGARIA</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -6693,7 +6693,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="13" t="str">
-        <f>UPPER(B26)</f>
+        <f t="shared" si="0"/>
         <v>BAHRAIN</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -6708,7 +6708,7 @@
         <v>710</v>
       </c>
       <c r="C27" s="13" t="str">
-        <f>UPPER(B27)</f>
+        <f t="shared" si="0"/>
         <v>BAHAMAS</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -6723,7 +6723,7 @@
         <v>220</v>
       </c>
       <c r="C28" s="13" t="str">
-        <f>UPPER(B28)</f>
+        <f t="shared" si="0"/>
         <v>BOSNIA AND HERZEGOVINA</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -6738,7 +6738,7 @@
         <v>631</v>
       </c>
       <c r="C29" s="13" t="str">
-        <f>UPPER(B29)</f>
+        <f t="shared" si="0"/>
         <v>SAINT BARTHÉLEMY</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -6753,7 +6753,7 @@
         <v>497</v>
       </c>
       <c r="C30" s="13" t="str">
-        <f>UPPER(B30)</f>
+        <f t="shared" si="0"/>
         <v>BELARUS</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -6768,7 +6768,7 @@
         <v>151</v>
       </c>
       <c r="C31" s="13" t="str">
-        <f>UPPER(B31)</f>
+        <f t="shared" si="0"/>
         <v>BELIZE</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -6783,7 +6783,7 @@
         <v>709</v>
       </c>
       <c r="C32" s="13" t="str">
-        <f>UPPER(B32)</f>
+        <f t="shared" si="0"/>
         <v>BERMUDA</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -6798,7 +6798,7 @@
         <v>707</v>
       </c>
       <c r="C33" s="13" t="str">
-        <f>UPPER(B33)</f>
+        <f t="shared" si="0"/>
         <v>BOLIVIA (PLURINATIONAL STATE OF)</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -6813,7 +6813,7 @@
         <v>473</v>
       </c>
       <c r="C34" s="13" t="str">
-        <f>UPPER(B34)</f>
+        <f t="shared" si="0"/>
         <v>BRAZIL</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -6828,7 +6828,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="13" t="str">
-        <f>UPPER(B35)</f>
+        <f t="shared" si="0"/>
         <v>BARBADOS</v>
       </c>
       <c r="D35" s="13" t="s">
@@ -6843,7 +6843,7 @@
         <v>699</v>
       </c>
       <c r="C36" s="13" t="str">
-        <f>UPPER(B36)</f>
+        <f t="shared" si="0"/>
         <v>BRUNEI DARUSSALAM</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -6858,7 +6858,7 @@
         <v>503</v>
       </c>
       <c r="C37" s="13" t="str">
-        <f>UPPER(B37)</f>
+        <f t="shared" si="0"/>
         <v>BHUTAN</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -6873,7 +6873,7 @@
         <v>704</v>
       </c>
       <c r="C38" s="13" t="str">
-        <f>UPPER(B38)</f>
+        <f t="shared" si="0"/>
         <v>BOUVET ISLAND</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -6888,7 +6888,7 @@
         <v>292</v>
       </c>
       <c r="C39" s="13" t="str">
-        <f>UPPER(B39)</f>
+        <f t="shared" si="0"/>
         <v>BOTSWANA</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -6903,7 +6903,7 @@
         <v>355</v>
       </c>
       <c r="C40" s="13" t="str">
-        <f>UPPER(B40)</f>
+        <f t="shared" si="0"/>
         <v>CENTRAL AFRICAN REPUBLIC</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -6918,7 +6918,7 @@
         <v>157</v>
       </c>
       <c r="C41" s="13" t="str">
-        <f>UPPER(B41)</f>
+        <f t="shared" si="0"/>
         <v>CANADA</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -6933,7 +6933,7 @@
         <v>691</v>
       </c>
       <c r="C42" s="13" t="str">
-        <f>UPPER(B42)</f>
+        <f t="shared" si="0"/>
         <v>COCOS (KEELING) ISLANDS</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -6948,7 +6948,7 @@
         <v>334</v>
       </c>
       <c r="C43" s="13" t="str">
-        <f>UPPER(B43)</f>
+        <f t="shared" si="0"/>
         <v>SWITZERLAND</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -6963,7 +6963,7 @@
         <v>586</v>
       </c>
       <c r="C44" s="13" t="str">
-        <f>UPPER(B44)</f>
+        <f t="shared" si="0"/>
         <v>CHILE</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -6978,7 +6978,7 @@
         <v>695</v>
       </c>
       <c r="C45" s="13" t="str">
-        <f>UPPER(B45)</f>
+        <f t="shared" si="0"/>
         <v>CHINA</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -6993,7 +6993,7 @@
         <v>728</v>
       </c>
       <c r="C46" s="13" t="str">
-        <f>UPPER(B46)</f>
+        <f t="shared" si="0"/>
         <v>CÔTE D'IVOIRE</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -7008,7 +7008,7 @@
         <v>181</v>
       </c>
       <c r="C47" s="13" t="str">
-        <f>UPPER(B47)</f>
+        <f t="shared" si="0"/>
         <v>CAMEROON</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -7023,7 +7023,7 @@
         <v>729</v>
       </c>
       <c r="C48" s="13" t="str">
-        <f>UPPER(B48)</f>
+        <f t="shared" si="0"/>
         <v>CONGO, DEMOCRATIC REPUBLIC OF THE</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -7038,7 +7038,7 @@
         <v>689</v>
       </c>
       <c r="C49" s="13" t="str">
-        <f>UPPER(B49)</f>
+        <f t="shared" si="0"/>
         <v>CONGO</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -7053,7 +7053,7 @@
         <v>688</v>
       </c>
       <c r="C50" s="13" t="str">
-        <f>UPPER(B50)</f>
+        <f t="shared" si="0"/>
         <v>COOK ISLANDS</v>
       </c>
       <c r="D50" s="13" t="s">
@@ -7068,7 +7068,7 @@
         <v>205</v>
       </c>
       <c r="C51" s="13" t="str">
-        <f>UPPER(B51)</f>
+        <f t="shared" si="0"/>
         <v>COLOMBIA</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -7083,7 +7083,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="13" t="str">
-        <f>UPPER(B52)</f>
+        <f t="shared" si="0"/>
         <v>COMOROS</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -7098,7 +7098,7 @@
         <v>698</v>
       </c>
       <c r="C53" s="13" t="str">
-        <f>UPPER(B53)</f>
+        <f t="shared" si="0"/>
         <v>CABO VERDE</v>
       </c>
       <c r="D53" s="13" t="s">
@@ -7113,7 +7113,7 @@
         <v>515</v>
       </c>
       <c r="C54" s="13" t="str">
-        <f>UPPER(B54)</f>
+        <f t="shared" si="0"/>
         <v>COSTA RICA</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -7128,7 +7128,7 @@
         <v>214</v>
       </c>
       <c r="C55" s="13" t="str">
-        <f>UPPER(B55)</f>
+        <f t="shared" si="0"/>
         <v>CUBA</v>
       </c>
       <c r="D55" s="13" t="s">
@@ -7143,7 +7143,7 @@
         <v>686</v>
       </c>
       <c r="C56" s="13" t="str">
-        <f>UPPER(B56)</f>
+        <f t="shared" si="0"/>
         <v>CURAÇAO</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -7158,7 +7158,7 @@
         <v>693</v>
       </c>
       <c r="C57" s="13" t="str">
-        <f>UPPER(B57)</f>
+        <f t="shared" si="0"/>
         <v>CHRISTMAS ISLAND</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -7173,7 +7173,7 @@
         <v>697</v>
       </c>
       <c r="C58" s="13" t="str">
-        <f>UPPER(B58)</f>
+        <f t="shared" si="0"/>
         <v>CAYMAN ISLANDS</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -7188,7 +7188,7 @@
         <v>574</v>
       </c>
       <c r="C59" s="13" t="str">
-        <f>UPPER(B59)</f>
+        <f t="shared" si="0"/>
         <v>CYPRUS</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -7203,7 +7203,7 @@
         <v>684</v>
       </c>
       <c r="C60" s="13" t="str">
-        <f>UPPER(B60)</f>
+        <f t="shared" si="0"/>
         <v>CZECHIA</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -7218,7 +7218,7 @@
         <v>458</v>
       </c>
       <c r="C61" s="13" t="str">
-        <f>UPPER(B61)</f>
+        <f t="shared" si="0"/>
         <v>GERMANY</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -7233,7 +7233,7 @@
         <v>349</v>
       </c>
       <c r="C62" s="13" t="str">
-        <f>UPPER(B62)</f>
+        <f t="shared" si="0"/>
         <v>DJIBOUTI</v>
       </c>
       <c r="D62" s="13" t="s">
@@ -7248,7 +7248,7 @@
         <v>68</v>
       </c>
       <c r="C63" s="13" t="str">
-        <f>UPPER(B63)</f>
+        <f t="shared" si="0"/>
         <v>DOMINICA</v>
       </c>
       <c r="D63" s="13" t="s">
@@ -7263,7 +7263,7 @@
         <v>397</v>
       </c>
       <c r="C64" s="13" t="str">
-        <f>UPPER(B64)</f>
+        <f t="shared" si="0"/>
         <v>DENMARK</v>
       </c>
       <c r="D64" s="13" t="s">
@@ -7278,7 +7278,7 @@
         <v>274</v>
       </c>
       <c r="C65" s="13" t="str">
-        <f>UPPER(B65)</f>
+        <f t="shared" si="0"/>
         <v>DOMINICAN REPUBLIC</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -7293,7 +7293,7 @@
         <v>250</v>
       </c>
       <c r="C66" s="13" t="str">
-        <f>UPPER(B66)</f>
+        <f t="shared" ref="C66:C129" si="1">UPPER(B66)</f>
         <v>ALGERIA</v>
       </c>
       <c r="D66" s="13" t="s">
@@ -7308,7 +7308,7 @@
         <v>208</v>
       </c>
       <c r="C67" s="13" t="str">
-        <f>UPPER(B67)</f>
+        <f t="shared" si="1"/>
         <v>ECUADOR</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -7323,7 +7323,7 @@
         <v>138</v>
       </c>
       <c r="C68" s="13" t="str">
-        <f>UPPER(B68)</f>
+        <f t="shared" si="1"/>
         <v>EGYPT</v>
       </c>
       <c r="D68" s="13" t="s">
@@ -7338,7 +7338,7 @@
         <v>346</v>
       </c>
       <c r="C69" s="13" t="str">
-        <f>UPPER(B69)</f>
+        <f t="shared" si="1"/>
         <v>ERITREA</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -7353,7 +7353,7 @@
         <v>605</v>
       </c>
       <c r="C70" s="13" t="str">
-        <f>UPPER(B70)</f>
+        <f t="shared" si="1"/>
         <v>WESTERN SAHARA</v>
       </c>
       <c r="D70" s="13" t="s">
@@ -7368,7 +7368,7 @@
         <v>409</v>
       </c>
       <c r="C71" s="13" t="str">
-        <f>UPPER(B71)</f>
+        <f t="shared" si="1"/>
         <v>SPAIN</v>
       </c>
       <c r="D71" s="13" t="s">
@@ -7383,7 +7383,7 @@
         <v>455</v>
       </c>
       <c r="C72" s="13" t="str">
-        <f>UPPER(B72)</f>
+        <f t="shared" si="1"/>
         <v>ESTONIA</v>
       </c>
       <c r="D72" s="13" t="s">
@@ -7398,7 +7398,7 @@
         <v>557</v>
       </c>
       <c r="C73" s="13" t="str">
-        <f>UPPER(B73)</f>
+        <f t="shared" si="1"/>
         <v>ETHIOPIA</v>
       </c>
       <c r="D73" s="13" t="s">
@@ -7413,7 +7413,7 @@
         <v>443</v>
       </c>
       <c r="C74" s="13" t="str">
-        <f>UPPER(B74)</f>
+        <f t="shared" si="1"/>
         <v>FINLAND</v>
       </c>
       <c r="D74" s="13" t="s">
@@ -7428,7 +7428,7 @@
         <v>113</v>
       </c>
       <c r="C75" s="13" t="str">
-        <f>UPPER(B75)</f>
+        <f t="shared" si="1"/>
         <v>FIJI</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -7443,7 +7443,7 @@
         <v>682</v>
       </c>
       <c r="C76" s="13" t="str">
-        <f>UPPER(B76)</f>
+        <f t="shared" si="1"/>
         <v>FALKLAND ISLANDS (MALVINAS)</v>
       </c>
       <c r="D76" s="13" t="s">
@@ -7458,7 +7458,7 @@
         <v>533</v>
       </c>
       <c r="C77" s="13" t="str">
-        <f>UPPER(B77)</f>
+        <f t="shared" si="1"/>
         <v>FRANCE</v>
       </c>
       <c r="D77" s="13" t="s">
@@ -7473,7 +7473,7 @@
         <v>680</v>
       </c>
       <c r="C78" s="13" t="str">
-        <f>UPPER(B78)</f>
+        <f t="shared" si="1"/>
         <v>FAROE ISLANDS</v>
       </c>
       <c r="D78" s="13" t="s">
@@ -7488,7 +7488,7 @@
         <v>650</v>
       </c>
       <c r="C79" s="13" t="str">
-        <f>UPPER(B79)</f>
+        <f t="shared" si="1"/>
         <v>MICRONESIA (FEDERATED STATES OF)</v>
       </c>
       <c r="D79" s="13" t="s">
@@ -7503,7 +7503,7 @@
         <v>178</v>
       </c>
       <c r="C80" s="13" t="str">
-        <f>UPPER(B80)</f>
+        <f t="shared" si="1"/>
         <v>GABON</v>
       </c>
       <c r="D80" s="13" t="s">
@@ -7518,7 +7518,7 @@
         <v>612</v>
       </c>
       <c r="C81" s="13" t="str">
-        <f>UPPER(B81)</f>
+        <f t="shared" si="1"/>
         <v>UNITED KINGDOM OF GREAT BRITAIN AND NORTHERN IRELAND</v>
       </c>
       <c r="D81" s="13" t="s">
@@ -7533,7 +7533,7 @@
         <v>425</v>
       </c>
       <c r="C82" s="13" t="str">
-        <f>UPPER(B82)</f>
+        <f t="shared" si="1"/>
         <v>GEORGIA</v>
       </c>
       <c r="D82" s="13" t="s">
@@ -7548,7 +7548,7 @@
         <v>665</v>
       </c>
       <c r="C83" s="13" t="str">
-        <f>UPPER(B83)</f>
+        <f t="shared" si="1"/>
         <v>GUERNSEY</v>
       </c>
       <c r="D83" s="13" t="s">
@@ -7563,7 +7563,7 @@
         <v>166</v>
       </c>
       <c r="C84" s="13" t="str">
-        <f>UPPER(B84)</f>
+        <f t="shared" si="1"/>
         <v>GHANA</v>
       </c>
       <c r="D84" s="13" t="s">
@@ -7578,7 +7578,7 @@
         <v>671</v>
       </c>
       <c r="C85" s="13" t="str">
-        <f>UPPER(B85)</f>
+        <f t="shared" si="1"/>
         <v>GIBRALTAR</v>
       </c>
       <c r="D85" s="13" t="s">
@@ -7593,7 +7593,7 @@
         <v>361</v>
       </c>
       <c r="C86" s="13" t="str">
-        <f>UPPER(B86)</f>
+        <f t="shared" si="1"/>
         <v>GUINEA</v>
       </c>
       <c r="D86" s="13" t="s">
@@ -7608,7 +7608,7 @@
         <v>669</v>
       </c>
       <c r="C87" s="13" t="str">
-        <f>UPPER(B87)</f>
+        <f t="shared" si="1"/>
         <v>GUADELOUPE</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -7623,7 +7623,7 @@
         <v>672</v>
       </c>
       <c r="C88" s="13" t="str">
-        <f>UPPER(B88)</f>
+        <f t="shared" si="1"/>
         <v>GAMBIA</v>
       </c>
       <c r="D88" s="13" t="s">
@@ -7638,7 +7638,7 @@
         <v>163</v>
       </c>
       <c r="C89" s="13" t="str">
-        <f>UPPER(B89)</f>
+        <f t="shared" si="1"/>
         <v>GUINEA-BISSAU</v>
       </c>
       <c r="D89" s="13" t="s">
@@ -7653,7 +7653,7 @@
         <v>129</v>
       </c>
       <c r="C90" s="13" t="str">
-        <f>UPPER(B90)</f>
+        <f t="shared" si="1"/>
         <v>EQUATORIAL GUINEA</v>
       </c>
       <c r="D90" s="13" t="s">
@@ -7668,7 +7668,7 @@
         <v>370</v>
       </c>
       <c r="C91" s="13" t="str">
-        <f>UPPER(B91)</f>
+        <f t="shared" si="1"/>
         <v>GREECE</v>
       </c>
       <c r="D91" s="13" t="s">
@@ -7683,7 +7683,7 @@
         <v>80</v>
       </c>
       <c r="C92" s="13" t="str">
-        <f>UPPER(B92)</f>
+        <f t="shared" si="1"/>
         <v>GRENADA</v>
       </c>
       <c r="D92" s="13" t="s">
@@ -7698,7 +7698,7 @@
         <v>116</v>
       </c>
       <c r="C93" s="13" t="str">
-        <f>UPPER(B93)</f>
+        <f t="shared" si="1"/>
         <v>GREENLAND</v>
       </c>
       <c r="D93" s="13" t="s">
@@ -7713,7 +7713,7 @@
         <v>262</v>
       </c>
       <c r="C94" s="13" t="str">
-        <f>UPPER(B94)</f>
+        <f t="shared" si="1"/>
         <v>GUATEMALA</v>
       </c>
       <c r="D94" s="13" t="s">
@@ -7728,7 +7728,7 @@
         <v>678</v>
       </c>
       <c r="C95" s="13" t="str">
-        <f>UPPER(B95)</f>
+        <f t="shared" si="1"/>
         <v>FRENCH GUIANA</v>
       </c>
       <c r="D95" s="13" t="s">
@@ -7743,7 +7743,7 @@
         <v>667</v>
       </c>
       <c r="C96" s="13" t="str">
-        <f>UPPER(B96)</f>
+        <f t="shared" si="1"/>
         <v>GUAM</v>
       </c>
       <c r="D96" s="13" t="s">
@@ -7758,7 +7758,7 @@
         <v>527</v>
       </c>
       <c r="C97" s="13" t="str">
-        <f>UPPER(B97)</f>
+        <f t="shared" si="1"/>
         <v>GUYANA</v>
       </c>
       <c r="D97" s="13" t="s">
@@ -7773,7 +7773,7 @@
         <v>123</v>
       </c>
       <c r="C98" s="13" t="str">
-        <f>UPPER(B98)</f>
+        <f t="shared" si="1"/>
         <v>HONG KONG</v>
       </c>
       <c r="D98" s="13" t="s">
@@ -7788,7 +7788,7 @@
         <v>663</v>
       </c>
       <c r="C99" s="13" t="str">
-        <f>UPPER(B99)</f>
+        <f t="shared" si="1"/>
         <v>HEARD ISLAND AND MCDONALD ISLANDS</v>
       </c>
       <c r="D99" s="13" t="s">
@@ -7803,7 +7803,7 @@
         <v>211</v>
       </c>
       <c r="C100" s="13" t="str">
-        <f>UPPER(B100)</f>
+        <f t="shared" si="1"/>
         <v>HONDURAS</v>
       </c>
       <c r="D100" s="13" t="s">
@@ -7818,7 +7818,7 @@
         <v>304</v>
       </c>
       <c r="C101" s="13" t="str">
-        <f>UPPER(B101)</f>
+        <f t="shared" si="1"/>
         <v>CROATIA</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -7833,7 +7833,7 @@
         <v>277</v>
       </c>
       <c r="C102" s="13" t="str">
-        <f>UPPER(B102)</f>
+        <f t="shared" si="1"/>
         <v>HAITI</v>
       </c>
       <c r="D102" s="13" t="s">
@@ -7848,7 +7848,7 @@
         <v>385</v>
       </c>
       <c r="C103" s="13" t="str">
-        <f>UPPER(B103)</f>
+        <f t="shared" si="1"/>
         <v>HUNGARY</v>
       </c>
       <c r="D103" s="13" t="s">
@@ -7863,7 +7863,7 @@
         <v>592</v>
       </c>
       <c r="C104" s="13" t="str">
-        <f>UPPER(B104)</f>
+        <f t="shared" si="1"/>
         <v>INDONESIA</v>
       </c>
       <c r="D104" s="13" t="s">
@@ -7878,7 +7878,7 @@
         <v>659</v>
       </c>
       <c r="C105" s="13" t="str">
-        <f>UPPER(B105)</f>
+        <f t="shared" si="1"/>
         <v>ISLE OF MAN</v>
       </c>
       <c r="D105" s="13" t="s">
@@ -7893,7 +7893,7 @@
         <v>571</v>
       </c>
       <c r="C106" s="13" t="str">
-        <f>UPPER(B106)</f>
+        <f t="shared" si="1"/>
         <v>INDIA</v>
       </c>
       <c r="D106" s="13" t="s">
@@ -7908,7 +7908,7 @@
         <v>702</v>
       </c>
       <c r="C107" s="13" t="str">
-        <f>UPPER(B107)</f>
+        <f t="shared" si="1"/>
         <v>BRITISH INDIAN OCEAN TERRITORY</v>
       </c>
       <c r="D107" s="13" t="s">
@@ -7923,7 +7923,7 @@
         <v>376</v>
       </c>
       <c r="C108" s="13" t="str">
-        <f>UPPER(B108)</f>
+        <f t="shared" si="1"/>
         <v>IRELAND</v>
       </c>
       <c r="D108" s="13" t="s">
@@ -7938,7 +7938,7 @@
         <v>660</v>
       </c>
       <c r="C109" s="13" t="str">
-        <f>UPPER(B109)</f>
+        <f t="shared" si="1"/>
         <v>IRAN (ISLAMIC REPUBLIC OF)</v>
       </c>
       <c r="D109" s="13" t="s">
@@ -7953,7 +7953,7 @@
         <v>340</v>
       </c>
       <c r="C110" s="13" t="str">
-        <f>UPPER(B110)</f>
+        <f t="shared" si="1"/>
         <v>IRAQ</v>
       </c>
       <c r="D110" s="13" t="s">
@@ -7968,7 +7968,7 @@
         <v>95</v>
       </c>
       <c r="C111" s="13" t="str">
-        <f>UPPER(B111)</f>
+        <f t="shared" si="1"/>
         <v>ICELAND</v>
       </c>
       <c r="D111" s="13" t="s">
@@ -7983,7 +7983,7 @@
         <v>565</v>
       </c>
       <c r="C112" s="13" t="str">
-        <f>UPPER(B112)</f>
+        <f t="shared" si="1"/>
         <v>ISRAEL</v>
       </c>
       <c r="D112" s="13" t="s">
@@ -7998,7 +7998,7 @@
         <v>337</v>
       </c>
       <c r="C113" s="13" t="str">
-        <f>UPPER(B113)</f>
+        <f t="shared" si="1"/>
         <v>ITALY</v>
       </c>
       <c r="D113" s="13" t="s">
@@ -8013,7 +8013,7 @@
         <v>59</v>
       </c>
       <c r="C114" s="13" t="str">
-        <f>UPPER(B114)</f>
+        <f t="shared" si="1"/>
         <v>JAMAICA</v>
       </c>
       <c r="D114" s="13" t="s">
@@ -8028,7 +8028,7 @@
         <v>657</v>
       </c>
       <c r="C115" s="13" t="str">
-        <f>UPPER(B115)</f>
+        <f t="shared" si="1"/>
         <v>JERSEY</v>
       </c>
       <c r="D115" s="13" t="s">
@@ -8043,7 +8043,7 @@
         <v>190</v>
       </c>
       <c r="C116" s="13" t="str">
-        <f>UPPER(B116)</f>
+        <f t="shared" si="1"/>
         <v>JORDAN</v>
       </c>
       <c r="D116" s="13" t="s">
@@ -8058,7 +8058,7 @@
         <v>98</v>
       </c>
       <c r="C117" s="13" t="str">
-        <f>UPPER(B117)</f>
+        <f t="shared" si="1"/>
         <v>JAPAN</v>
       </c>
       <c r="D117" s="13" t="s">
@@ -8073,7 +8073,7 @@
         <v>482</v>
       </c>
       <c r="C118" s="13" t="str">
-        <f>UPPER(B118)</f>
+        <f t="shared" si="1"/>
         <v>KAZAKHSTAN</v>
       </c>
       <c r="D118" s="13" t="s">
@@ -8088,7 +8088,7 @@
         <v>548</v>
       </c>
       <c r="C119" s="13" t="str">
-        <f>UPPER(B119)</f>
+        <f t="shared" si="1"/>
         <v>KENYA</v>
       </c>
       <c r="D119" s="13" t="s">
@@ -8103,7 +8103,7 @@
         <v>403</v>
       </c>
       <c r="C120" s="13" t="str">
-        <f>UPPER(B120)</f>
+        <f t="shared" si="1"/>
         <v>KYRGYZSTAN</v>
       </c>
       <c r="D120" s="13" t="s">
@@ -8118,7 +8118,7 @@
         <v>437</v>
       </c>
       <c r="C121" s="13" t="str">
-        <f>UPPER(B121)</f>
+        <f t="shared" si="1"/>
         <v>CAMBODIA</v>
       </c>
       <c r="D121" s="13" t="s">
@@ -8133,7 +8133,7 @@
         <v>89</v>
       </c>
       <c r="C122" s="13" t="str">
-        <f>UPPER(B122)</f>
+        <f t="shared" si="1"/>
         <v>KIRIBATI</v>
       </c>
       <c r="D122" s="13" t="s">
@@ -8148,7 +8148,7 @@
         <v>62</v>
       </c>
       <c r="C123" s="13" t="str">
-        <f>UPPER(B123)</f>
+        <f t="shared" si="1"/>
         <v>SAINT KITTS AND NEVIS</v>
       </c>
       <c r="D123" s="13" t="s">
@@ -8163,7 +8163,7 @@
         <v>730</v>
       </c>
       <c r="C124" s="13" t="str">
-        <f>UPPER(B124)</f>
+        <f t="shared" si="1"/>
         <v>KOREA, REPUBLIC OF</v>
       </c>
       <c r="D124" s="13" t="s">
@@ -8178,7 +8178,7 @@
         <v>268</v>
       </c>
       <c r="C125" s="13" t="str">
-        <f>UPPER(B125)</f>
+        <f t="shared" si="1"/>
         <v>KUWAIT</v>
       </c>
       <c r="D125" s="13" t="s">
@@ -8193,7 +8193,7 @@
         <v>655</v>
       </c>
       <c r="C126" s="13" t="str">
-        <f>UPPER(B126)</f>
+        <f t="shared" si="1"/>
         <v>LAO PEOPLE'S DEMOCRATIC REPUBLIC</v>
       </c>
       <c r="D126" s="13" t="s">
@@ -8208,7 +8208,7 @@
         <v>560</v>
       </c>
       <c r="C127" s="13" t="str">
-        <f>UPPER(B127)</f>
+        <f t="shared" si="1"/>
         <v>LEBANON</v>
       </c>
       <c r="D127" s="13" t="s">
@@ -8223,7 +8223,7 @@
         <v>358</v>
       </c>
       <c r="C128" s="13" t="str">
-        <f>UPPER(B128)</f>
+        <f t="shared" si="1"/>
         <v>LIBERIA</v>
       </c>
       <c r="D128" s="13" t="s">
@@ -8238,7 +8238,7 @@
         <v>394</v>
       </c>
       <c r="C129" s="13" t="str">
-        <f>UPPER(B129)</f>
+        <f t="shared" si="1"/>
         <v>LIBYA</v>
       </c>
       <c r="D129" s="13" t="s">
@@ -8253,7 +8253,7 @@
         <v>71</v>
       </c>
       <c r="C130" s="13" t="str">
-        <f>UPPER(B130)</f>
+        <f t="shared" ref="C130:C193" si="2">UPPER(B130)</f>
         <v>SAINT LUCIA</v>
       </c>
       <c r="D130" s="13" t="s">
@@ -8268,7 +8268,7 @@
         <v>328</v>
       </c>
       <c r="C131" s="13" t="str">
-        <f>UPPER(B131)</f>
+        <f t="shared" si="2"/>
         <v>LIECHTENSTEIN</v>
       </c>
       <c r="D131" s="13" t="s">
@@ -8283,7 +8283,7 @@
         <v>104</v>
       </c>
       <c r="C132" s="13" t="str">
-        <f>UPPER(B132)</f>
+        <f t="shared" si="2"/>
         <v>SRI LANKA</v>
       </c>
       <c r="D132" s="13" t="s">
@@ -8298,7 +8298,7 @@
         <v>184</v>
       </c>
       <c r="C133" s="13" t="str">
-        <f>UPPER(B133)</f>
+        <f t="shared" si="2"/>
         <v>LESOTHO</v>
       </c>
       <c r="D133" s="13" t="s">
@@ -8313,7 +8313,7 @@
         <v>476</v>
       </c>
       <c r="C134" s="13" t="str">
-        <f>UPPER(B134)</f>
+        <f t="shared" si="2"/>
         <v>LITHUANIA</v>
       </c>
       <c r="D134" s="13" t="s">
@@ -8328,7 +8328,7 @@
         <v>434</v>
       </c>
       <c r="C135" s="13" t="str">
-        <f>UPPER(B135)</f>
+        <f t="shared" si="2"/>
         <v>LUXEMBOURG</v>
       </c>
       <c r="D135" s="13" t="s">
@@ -8343,7 +8343,7 @@
         <v>452</v>
       </c>
       <c r="C136" s="13" t="str">
-        <f>UPPER(B136)</f>
+        <f t="shared" si="2"/>
         <v>LATVIA</v>
       </c>
       <c r="D136" s="13" t="s">
@@ -8358,7 +8358,7 @@
         <v>731</v>
       </c>
       <c r="C137" s="13" t="str">
-        <f>UPPER(B137)</f>
+        <f t="shared" si="2"/>
         <v>MACAO</v>
       </c>
       <c r="D137" s="13" t="s">
@@ -8373,7 +8373,7 @@
         <v>732</v>
       </c>
       <c r="C138" s="13" t="str">
-        <f>UPPER(B138)</f>
+        <f t="shared" si="2"/>
         <v>SAINT MARTIN (FRENCH PART)</v>
       </c>
       <c r="D138" s="13" t="s">
@@ -8388,7 +8388,7 @@
         <v>518</v>
       </c>
       <c r="C139" s="13" t="str">
-        <f>UPPER(B139)</f>
+        <f t="shared" si="2"/>
         <v>MOROCCO</v>
       </c>
       <c r="D139" s="13" t="s">
@@ -8403,7 +8403,7 @@
         <v>253</v>
       </c>
       <c r="C140" s="13" t="str">
-        <f>UPPER(B140)</f>
+        <f t="shared" si="2"/>
         <v>MONACO</v>
       </c>
       <c r="D140" s="13" t="s">
@@ -8418,7 +8418,7 @@
         <v>733</v>
       </c>
       <c r="C141" s="13" t="str">
-        <f>UPPER(B141)</f>
+        <f t="shared" si="2"/>
         <v>MOLDOVA, REPUBLIC OF</v>
       </c>
       <c r="D141" s="13" t="s">
@@ -8433,7 +8433,7 @@
         <v>110</v>
       </c>
       <c r="C142" s="13" t="str">
-        <f>UPPER(B142)</f>
+        <f t="shared" si="2"/>
         <v>MADAGASCAR</v>
       </c>
       <c r="D142" s="13" t="s">
@@ -8448,7 +8448,7 @@
         <v>26</v>
       </c>
       <c r="C143" s="13" t="str">
-        <f>UPPER(B143)</f>
+        <f t="shared" si="2"/>
         <v>MALDIVES</v>
       </c>
       <c r="D143" s="13" t="s">
@@ -8463,7 +8463,7 @@
         <v>154</v>
       </c>
       <c r="C144" s="13" t="str">
-        <f>UPPER(B144)</f>
+        <f t="shared" si="2"/>
         <v>MEXICO</v>
       </c>
       <c r="D144" s="13" t="s">
@@ -8478,7 +8478,7 @@
         <v>86</v>
       </c>
       <c r="C145" s="13" t="str">
-        <f>UPPER(B145)</f>
+        <f t="shared" si="2"/>
         <v>MARSHALL ISLANDS</v>
       </c>
       <c r="D145" s="13" t="s">
@@ -8493,7 +8493,7 @@
         <v>641</v>
       </c>
       <c r="C146" s="13" t="str">
-        <f>UPPER(B146)</f>
+        <f t="shared" si="2"/>
         <v>NORTH MACEDONIA</v>
       </c>
       <c r="D146" s="13" t="s">
@@ -8508,7 +8508,7 @@
         <v>319</v>
       </c>
       <c r="C147" s="13" t="str">
-        <f>UPPER(B147)</f>
+        <f t="shared" si="2"/>
         <v>MALI</v>
       </c>
       <c r="D147" s="13" t="s">
@@ -8523,7 +8523,7 @@
         <v>44</v>
       </c>
       <c r="C148" s="13" t="str">
-        <f>UPPER(B148)</f>
+        <f t="shared" si="2"/>
         <v>MALTA</v>
       </c>
       <c r="D148" s="13" t="s">
@@ -8538,7 +8538,7 @@
         <v>235</v>
       </c>
       <c r="C149" s="13" t="str">
-        <f>UPPER(B149)</f>
+        <f t="shared" si="2"/>
         <v>MYANMAR</v>
       </c>
       <c r="D149" s="13" t="s">
@@ -8553,7 +8553,7 @@
         <v>223</v>
       </c>
       <c r="C150" s="13" t="str">
-        <f>UPPER(B150)</f>
+        <f t="shared" si="2"/>
         <v>MONTENEGRO</v>
       </c>
       <c r="D150" s="13" t="s">
@@ -8568,7 +8568,7 @@
         <v>467</v>
       </c>
       <c r="C151" s="13" t="str">
-        <f>UPPER(B151)</f>
+        <f t="shared" si="2"/>
         <v>MONGOLIA</v>
       </c>
       <c r="D151" s="13" t="s">
@@ -8583,7 +8583,7 @@
         <v>640</v>
       </c>
       <c r="C152" s="13" t="str">
-        <f>UPPER(B152)</f>
+        <f t="shared" si="2"/>
         <v>NORTHERN MARIANA ISLANDS</v>
       </c>
       <c r="D152" s="13" t="s">
@@ -8598,7 +8598,7 @@
         <v>247</v>
       </c>
       <c r="C153" s="13" t="str">
-        <f>UPPER(B153)</f>
+        <f t="shared" si="2"/>
         <v>MOZAMBIQUE</v>
       </c>
       <c r="D153" s="13" t="s">
@@ -8613,7 +8613,7 @@
         <v>132</v>
       </c>
       <c r="C154" s="13" t="str">
-        <f>UPPER(B154)</f>
+        <f t="shared" si="2"/>
         <v>MAURITANIA</v>
       </c>
       <c r="D154" s="13" t="s">
@@ -8628,7 +8628,7 @@
         <v>649</v>
       </c>
       <c r="C155" s="13" t="str">
-        <f>UPPER(B155)</f>
+        <f t="shared" si="2"/>
         <v>MONTSERRAT</v>
       </c>
       <c r="D155" s="13" t="s">
@@ -8643,7 +8643,7 @@
         <v>654</v>
       </c>
       <c r="C156" s="13" t="str">
-        <f>UPPER(B156)</f>
+        <f t="shared" si="2"/>
         <v>MARTINIQUE</v>
       </c>
       <c r="D156" s="13" t="s">
@@ -8658,7 +8658,7 @@
         <v>56</v>
       </c>
       <c r="C157" s="13" t="str">
-        <f>UPPER(B157)</f>
+        <f t="shared" si="2"/>
         <v>MAURITIUS</v>
       </c>
       <c r="D157" s="13" t="s">
@@ -8673,7 +8673,7 @@
         <v>542</v>
       </c>
       <c r="C158" s="13" t="str">
-        <f>UPPER(B158)</f>
+        <f t="shared" si="2"/>
         <v>MALAWI</v>
       </c>
       <c r="D158" s="13" t="s">
@@ -8688,7 +8688,7 @@
         <v>589</v>
       </c>
       <c r="C159" s="13" t="str">
-        <f>UPPER(B159)</f>
+        <f t="shared" si="2"/>
         <v>MALAYSIA</v>
       </c>
       <c r="D159" s="13" t="s">
@@ -8703,7 +8703,7 @@
         <v>652</v>
       </c>
       <c r="C160" s="13" t="str">
-        <f>UPPER(B160)</f>
+        <f t="shared" si="2"/>
         <v>MAYOTTE</v>
       </c>
       <c r="D160" s="13" t="s">
@@ -8718,7 +8718,7 @@
         <v>494</v>
       </c>
       <c r="C161" s="13" t="str">
-        <f>UPPER(B161)</f>
+        <f t="shared" si="2"/>
         <v>NAMIBIA</v>
       </c>
       <c r="D161" s="13" t="s">
@@ -8733,7 +8733,7 @@
         <v>647</v>
       </c>
       <c r="C162" s="13" t="str">
-        <f>UPPER(B162)</f>
+        <f t="shared" si="2"/>
         <v>NEW CALEDONIA</v>
       </c>
       <c r="D162" s="13" t="s">
@@ -8748,7 +8748,7 @@
         <v>175</v>
       </c>
       <c r="C163" s="13" t="str">
-        <f>UPPER(B163)</f>
+        <f t="shared" si="2"/>
         <v>NIGER</v>
       </c>
       <c r="D163" s="13" t="s">
@@ -8763,7 +8763,7 @@
         <v>643</v>
       </c>
       <c r="C164" s="13" t="str">
-        <f>UPPER(B164)</f>
+        <f t="shared" si="2"/>
         <v>NORFOLK ISLAND</v>
       </c>
       <c r="D164" s="13" t="s">
@@ -8778,7 +8778,7 @@
         <v>313</v>
       </c>
       <c r="C165" s="13" t="str">
-        <f>UPPER(B165)</f>
+        <f t="shared" si="2"/>
         <v>NIGERIA</v>
       </c>
       <c r="D165" s="13" t="s">
@@ -8793,7 +8793,7 @@
         <v>512</v>
       </c>
       <c r="C166" s="13" t="str">
-        <f>UPPER(B166)</f>
+        <f t="shared" si="2"/>
         <v>NICARAGUA</v>
       </c>
       <c r="D166" s="13" t="s">
@@ -8808,7 +8808,7 @@
         <v>645</v>
       </c>
       <c r="C167" s="13" t="str">
-        <f>UPPER(B167)</f>
+        <f t="shared" si="2"/>
         <v>NIUE</v>
       </c>
       <c r="D167" s="13" t="s">
@@ -8823,7 +8823,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="13" t="str">
-        <f>UPPER(B168)</f>
+        <f t="shared" si="2"/>
         <v>NETHERLANDS</v>
       </c>
       <c r="D168" s="13" t="s">
@@ -8838,7 +8838,7 @@
         <v>449</v>
       </c>
       <c r="C169" s="13" t="str">
-        <f>UPPER(B169)</f>
+        <f t="shared" si="2"/>
         <v>NORWAY</v>
       </c>
       <c r="D169" s="13" t="s">
@@ -8853,7 +8853,7 @@
         <v>187</v>
       </c>
       <c r="C170" s="13" t="str">
-        <f>UPPER(B170)</f>
+        <f t="shared" si="2"/>
         <v>NEPAL</v>
       </c>
       <c r="D170" s="13" t="s">
@@ -8868,7 +8868,7 @@
         <v>23</v>
       </c>
       <c r="C171" s="13" t="str">
-        <f>UPPER(B171)</f>
+        <f t="shared" si="2"/>
         <v>NAURU</v>
       </c>
       <c r="D171" s="13" t="s">
@@ -8883,7 +8883,7 @@
         <v>3</v>
       </c>
       <c r="C172" s="13" t="str">
-        <f>UPPER(B172)</f>
+        <f t="shared" si="2"/>
         <v>NEW ZEALAND</v>
       </c>
       <c r="D172" s="13" t="s">
@@ -8898,7 +8898,7 @@
         <v>488</v>
       </c>
       <c r="C173" s="13" t="str">
-        <f>UPPER(B173)</f>
+        <f t="shared" si="2"/>
         <v>OMAN</v>
       </c>
       <c r="D173" s="13" t="s">
@@ -8913,7 +8913,7 @@
         <v>545</v>
       </c>
       <c r="C174" s="13" t="str">
-        <f>UPPER(B174)</f>
+        <f t="shared" si="2"/>
         <v>PAKISTAN</v>
       </c>
       <c r="D174" s="13" t="s">
@@ -8928,7 +8928,7 @@
         <v>148</v>
       </c>
       <c r="C175" s="13" t="str">
-        <f>UPPER(B175)</f>
+        <f t="shared" si="2"/>
         <v>PANAMA</v>
       </c>
       <c r="D175" s="13" t="s">
@@ -8943,7 +8943,7 @@
         <v>638</v>
       </c>
       <c r="C176" s="13" t="str">
-        <f>UPPER(B176)</f>
+        <f t="shared" si="2"/>
         <v>PITCAIRN</v>
       </c>
       <c r="D176" s="13" t="s">
@@ -8958,7 +8958,7 @@
         <v>580</v>
       </c>
       <c r="C177" s="13" t="str">
-        <f>UPPER(B177)</f>
+        <f t="shared" si="2"/>
         <v>PERU</v>
       </c>
       <c r="D177" s="13" t="s">
@@ -8973,7 +8973,7 @@
         <v>107</v>
       </c>
       <c r="C178" s="13" t="str">
-        <f>UPPER(B178)</f>
+        <f t="shared" si="2"/>
         <v>PHILIPPINES</v>
       </c>
       <c r="D178" s="13" t="s">
@@ -8988,7 +8988,7 @@
         <v>12</v>
       </c>
       <c r="C179" s="13" t="str">
-        <f>UPPER(B179)</f>
+        <f t="shared" si="2"/>
         <v>PALAU</v>
       </c>
       <c r="D179" s="13" t="s">
@@ -9003,7 +9003,7 @@
         <v>141</v>
       </c>
       <c r="C180" s="13" t="str">
-        <f>UPPER(B180)</f>
+        <f t="shared" si="2"/>
         <v>PAPUA NEW GUINEA</v>
       </c>
       <c r="D180" s="13" t="s">
@@ -9018,7 +9018,7 @@
         <v>379</v>
       </c>
       <c r="C181" s="13" t="str">
-        <f>UPPER(B181)</f>
+        <f t="shared" si="2"/>
         <v>POLAND</v>
       </c>
       <c r="D181" s="13" t="s">
@@ -9033,7 +9033,7 @@
         <v>636</v>
       </c>
       <c r="C182" s="13" t="str">
-        <f>UPPER(B182)</f>
+        <f t="shared" si="2"/>
         <v>PUERTO RICO</v>
       </c>
       <c r="D182" s="13" t="s">
@@ -9048,7 +9048,7 @@
         <v>734</v>
       </c>
       <c r="C183" s="13" t="str">
-        <f>UPPER(B183)</f>
+        <f t="shared" si="2"/>
         <v>KOREA (DEMOCRATIC PEOPLE'S REPUBLIC OF)</v>
       </c>
       <c r="D183" s="13" t="s">
@@ -9063,7 +9063,7 @@
         <v>199</v>
       </c>
       <c r="C184" s="13" t="str">
-        <f>UPPER(B184)</f>
+        <f t="shared" si="2"/>
         <v>PORTUGAL</v>
       </c>
       <c r="D184" s="13" t="s">
@@ -9078,7 +9078,7 @@
         <v>202</v>
       </c>
       <c r="C185" s="13" t="str">
-        <f>UPPER(B185)</f>
+        <f t="shared" si="2"/>
         <v>PARAGUAY</v>
       </c>
       <c r="D185" s="13" t="s">
@@ -9093,7 +9093,7 @@
         <v>735</v>
       </c>
       <c r="C186" s="13" t="str">
-        <f>UPPER(B186)</f>
+        <f t="shared" si="2"/>
         <v>PALESTINE, STATE OF</v>
       </c>
       <c r="D186" s="13" t="s">
@@ -9108,7 +9108,7 @@
         <v>676</v>
       </c>
       <c r="C187" s="13" t="str">
-        <f>UPPER(B187)</f>
+        <f t="shared" si="2"/>
         <v>FRENCH POLYNESIA</v>
       </c>
       <c r="D187" s="13" t="s">
@@ -9123,7 +9123,7 @@
         <v>298</v>
       </c>
       <c r="C188" s="13" t="str">
-        <f>UPPER(B188)</f>
+        <f t="shared" si="2"/>
         <v>QATAR</v>
       </c>
       <c r="D188" s="13" t="s">
@@ -9138,7 +9138,7 @@
         <v>634</v>
       </c>
       <c r="C189" s="13" t="str">
-        <f>UPPER(B189)</f>
+        <f t="shared" si="2"/>
         <v>RÉUNION</v>
       </c>
       <c r="D189" s="13" t="s">
@@ -9153,7 +9153,7 @@
         <v>388</v>
       </c>
       <c r="C190" s="13" t="str">
-        <f>UPPER(B190)</f>
+        <f t="shared" si="2"/>
         <v>ROMANIA</v>
       </c>
       <c r="D190" s="13" t="s">
@@ -9168,7 +9168,7 @@
         <v>632</v>
       </c>
       <c r="C191" s="13" t="str">
-        <f>UPPER(B191)</f>
+        <f t="shared" si="2"/>
         <v>RUSSIAN FEDERATION</v>
       </c>
       <c r="D191" s="13" t="s">
@@ -9183,7 +9183,7 @@
         <v>238</v>
       </c>
       <c r="C192" s="13" t="str">
-        <f>UPPER(B192)</f>
+        <f t="shared" si="2"/>
         <v>RWANDA</v>
       </c>
       <c r="D192" s="13" t="s">
@@ -9198,7 +9198,7 @@
         <v>295</v>
       </c>
       <c r="C193" s="13" t="str">
-        <f>UPPER(B193)</f>
+        <f t="shared" si="2"/>
         <v>SAUDI ARABIA</v>
       </c>
       <c r="D193" s="13" t="s">
@@ -9213,7 +9213,7 @@
         <v>352</v>
       </c>
       <c r="C194" s="13" t="str">
-        <f>UPPER(B194)</f>
+        <f t="shared" ref="C194:C257" si="3">UPPER(B194)</f>
         <v>SUDAN</v>
       </c>
       <c r="D194" s="13" t="s">
@@ -9228,7 +9228,7 @@
         <v>316</v>
       </c>
       <c r="C195" s="13" t="str">
-        <f>UPPER(B195)</f>
+        <f t="shared" si="3"/>
         <v>SENEGAL</v>
       </c>
       <c r="D195" s="13" t="s">
@@ -9243,7 +9243,7 @@
         <v>41</v>
       </c>
       <c r="C196" s="13" t="str">
-        <f>UPPER(B196)</f>
+        <f t="shared" si="3"/>
         <v>SINGAPORE</v>
       </c>
       <c r="D196" s="13" t="s">
@@ -9258,7 +9258,7 @@
         <v>622</v>
       </c>
       <c r="C197" s="13" t="str">
-        <f>UPPER(B197)</f>
+        <f t="shared" si="3"/>
         <v>SOUTH GEORGIA AND THE SOUTH SANDWICH ISLANDS</v>
       </c>
       <c r="D197" s="13" t="s">
@@ -9273,7 +9273,7 @@
         <v>736</v>
       </c>
       <c r="C198" s="13" t="str">
-        <f>UPPER(B198)</f>
+        <f t="shared" si="3"/>
         <v>SAINT HELENA, ASCENSION AND TRISTAN DA CUNHA</v>
       </c>
       <c r="D198" s="13" t="s">
@@ -9288,7 +9288,7 @@
         <v>737</v>
       </c>
       <c r="C199" s="13" t="str">
-        <f>UPPER(B199)</f>
+        <f t="shared" si="3"/>
         <v>SVALBARD AND JAN MAYEN</v>
       </c>
       <c r="D199" s="13" t="s">
@@ -9303,7 +9303,7 @@
         <v>32</v>
       </c>
       <c r="C200" s="13" t="str">
-        <f>UPPER(B200)</f>
+        <f t="shared" si="3"/>
         <v>SOLOMON ISLANDS</v>
       </c>
       <c r="D200" s="13" t="s">
@@ -9318,7 +9318,7 @@
         <v>364</v>
       </c>
       <c r="C201" s="13" t="str">
-        <f>UPPER(B201)</f>
+        <f t="shared" si="3"/>
         <v>SIERRA LEONE</v>
       </c>
       <c r="D201" s="13" t="s">
@@ -9333,7 +9333,7 @@
         <v>265</v>
       </c>
       <c r="C202" s="13" t="str">
-        <f>UPPER(B202)</f>
+        <f t="shared" si="3"/>
         <v>EL SALVADOR</v>
       </c>
       <c r="D202" s="13" t="s">
@@ -9348,7 +9348,7 @@
         <v>280</v>
       </c>
       <c r="C203" s="13" t="str">
-        <f>UPPER(B203)</f>
+        <f t="shared" si="3"/>
         <v>SAN MARINO</v>
       </c>
       <c r="D203" s="13" t="s">
@@ -9363,7 +9363,7 @@
         <v>551</v>
       </c>
       <c r="C204" s="13" t="str">
-        <f>UPPER(B204)</f>
+        <f t="shared" si="3"/>
         <v>SOMALIA</v>
       </c>
       <c r="D204" s="13" t="s">
@@ -9378,7 +9378,7 @@
         <v>627</v>
       </c>
       <c r="C205" s="13" t="str">
-        <f>UPPER(B205)</f>
+        <f t="shared" si="3"/>
         <v>SAINT PIERRE AND MIQUELON</v>
       </c>
       <c r="D205" s="13" t="s">
@@ -9393,7 +9393,7 @@
         <v>322</v>
       </c>
       <c r="C206" s="13" t="str">
-        <f>UPPER(B206)</f>
+        <f t="shared" si="3"/>
         <v>SERBIA</v>
       </c>
       <c r="D206" s="13" t="s">
@@ -9408,7 +9408,7 @@
         <v>554</v>
       </c>
       <c r="C207" s="13" t="str">
-        <f>UPPER(B207)</f>
+        <f t="shared" si="3"/>
         <v>SOUTH SUDAN</v>
       </c>
       <c r="D207" s="13" t="s">
@@ -9423,7 +9423,7 @@
         <v>625</v>
       </c>
       <c r="C208" s="13" t="str">
-        <f>UPPER(B208)</f>
+        <f t="shared" si="3"/>
         <v>SAO TOME AND PRINCIPE</v>
       </c>
       <c r="D208" s="13" t="s">
@@ -9438,7 +9438,7 @@
         <v>530</v>
       </c>
       <c r="C209" s="13" t="str">
-        <f>UPPER(B209)</f>
+        <f t="shared" si="3"/>
         <v>SURINAME</v>
       </c>
       <c r="D209" s="13" t="s">
@@ -9453,7 +9453,7 @@
         <v>382</v>
       </c>
       <c r="C210" s="13" t="str">
-        <f>UPPER(B210)</f>
+        <f t="shared" si="3"/>
         <v>SLOVAKIA</v>
       </c>
       <c r="D210" s="13" t="s">
@@ -9468,7 +9468,7 @@
         <v>301</v>
       </c>
       <c r="C211" s="13" t="str">
-        <f>UPPER(B211)</f>
+        <f t="shared" si="3"/>
         <v>SLOVENIA</v>
       </c>
       <c r="D211" s="13" t="s">
@@ -9483,7 +9483,7 @@
         <v>446</v>
       </c>
       <c r="C212" s="13" t="str">
-        <f>UPPER(B212)</f>
+        <f t="shared" si="3"/>
         <v>SWEDEN</v>
       </c>
       <c r="D212" s="13" t="s">
@@ -9498,7 +9498,7 @@
         <v>683</v>
       </c>
       <c r="C213" s="13" t="str">
-        <f>UPPER(B213)</f>
+        <f t="shared" si="3"/>
         <v>ESWATINI</v>
       </c>
       <c r="D213" s="13" t="s">
@@ -9513,7 +9513,7 @@
         <v>624</v>
       </c>
       <c r="C214" s="13" t="str">
-        <f>UPPER(B214)</f>
+        <f t="shared" si="3"/>
         <v>SINT MAARTEN (DUTCH PART)</v>
       </c>
       <c r="D214" s="13" t="s">
@@ -9528,7 +9528,7 @@
         <v>92</v>
       </c>
       <c r="C215" s="13" t="str">
-        <f>UPPER(B215)</f>
+        <f t="shared" si="3"/>
         <v>SEYCHELLES</v>
       </c>
       <c r="D215" s="13" t="s">
@@ -9543,7 +9543,7 @@
         <v>619</v>
       </c>
       <c r="C216" s="13" t="str">
-        <f>UPPER(B216)</f>
+        <f t="shared" si="3"/>
         <v>SYRIAN ARAB REPUBLIC</v>
       </c>
       <c r="D216" s="13" t="s">
@@ -9558,7 +9558,7 @@
         <v>614</v>
       </c>
       <c r="C217" s="13" t="str">
-        <f>UPPER(B217)</f>
+        <f t="shared" si="3"/>
         <v>TURKS AND CAICOS ISLANDS</v>
       </c>
       <c r="D217" s="13" t="s">
@@ -9573,7 +9573,7 @@
         <v>271</v>
       </c>
       <c r="C218" s="13" t="str">
-        <f>UPPER(B218)</f>
+        <f t="shared" si="3"/>
         <v>CHAD</v>
       </c>
       <c r="D218" s="13" t="s">
@@ -9588,7 +9588,7 @@
         <v>169</v>
       </c>
       <c r="C219" s="13" t="str">
-        <f>UPPER(B219)</f>
+        <f t="shared" si="3"/>
         <v>TOGO</v>
       </c>
       <c r="D219" s="13" t="s">
@@ -9603,7 +9603,7 @@
         <v>283</v>
       </c>
       <c r="C220" s="13" t="str">
-        <f>UPPER(B220)</f>
+        <f t="shared" si="3"/>
         <v>THAILAND</v>
       </c>
       <c r="D220" s="13" t="s">
@@ -9618,7 +9618,7 @@
         <v>479</v>
       </c>
       <c r="C221" s="13" t="str">
-        <f>UPPER(B221)</f>
+        <f t="shared" si="3"/>
         <v>TAJIKISTAN</v>
       </c>
       <c r="D221" s="13" t="s">
@@ -9633,7 +9633,7 @@
         <v>617</v>
       </c>
       <c r="C222" s="13" t="str">
-        <f>UPPER(B222)</f>
+        <f t="shared" si="3"/>
         <v>TOKELAU</v>
       </c>
       <c r="D222" s="13" t="s">
@@ -9648,7 +9648,7 @@
         <v>193</v>
       </c>
       <c r="C223" s="13" t="str">
-        <f>UPPER(B223)</f>
+        <f t="shared" si="3"/>
         <v>TURKMENISTAN</v>
       </c>
       <c r="D223" s="13" t="s">
@@ -9663,7 +9663,7 @@
         <v>618</v>
       </c>
       <c r="C224" s="13" t="str">
-        <f>UPPER(B224)</f>
+        <f t="shared" si="3"/>
         <v>TIMOR-LESTE</v>
       </c>
       <c r="D224" s="13" t="s">
@@ -9678,7 +9678,7 @@
         <v>38</v>
       </c>
       <c r="C225" s="13" t="str">
-        <f>UPPER(B225)</f>
+        <f t="shared" si="3"/>
         <v>TONGA</v>
       </c>
       <c r="D225" s="13" t="s">
@@ -9693,7 +9693,7 @@
         <v>83</v>
       </c>
       <c r="C226" s="13" t="str">
-        <f>UPPER(B226)</f>
+        <f t="shared" si="3"/>
         <v>TRINIDAD AND TOBAGO</v>
       </c>
       <c r="D226" s="13" t="s">
@@ -9708,7 +9708,7 @@
         <v>391</v>
       </c>
       <c r="C227" s="13" t="str">
-        <f>UPPER(B227)</f>
+        <f t="shared" si="3"/>
         <v>TUNISIA</v>
       </c>
       <c r="D227" s="13" t="s">
@@ -9723,7 +9723,7 @@
         <v>615</v>
       </c>
       <c r="C228" s="13" t="str">
-        <f>UPPER(B228)</f>
+        <f t="shared" si="3"/>
         <v>TÜRKIYE</v>
       </c>
       <c r="D228" s="13" t="s">
@@ -9738,7 +9738,7 @@
         <v>29</v>
       </c>
       <c r="C229" s="13" t="str">
-        <f>UPPER(B229)</f>
+        <f t="shared" si="3"/>
         <v>TUVALU</v>
       </c>
       <c r="D229" s="13" t="s">
@@ -9753,7 +9753,7 @@
         <v>738</v>
       </c>
       <c r="C230" s="13" t="str">
-        <f>UPPER(B230)</f>
+        <f t="shared" si="3"/>
         <v>TAIWAN, PROVINCE OF CHINA</v>
       </c>
       <c r="D230" s="13" t="s">
@@ -9768,7 +9768,7 @@
         <v>739</v>
       </c>
       <c r="C231" s="13" t="str">
-        <f>UPPER(B231)</f>
+        <f t="shared" si="3"/>
         <v>TANZANIA, UNITED REPUBLIC OF</v>
       </c>
       <c r="D231" s="13" t="s">
@@ -9783,7 +9783,7 @@
         <v>217</v>
       </c>
       <c r="C232" s="13" t="str">
-        <f>UPPER(B232)</f>
+        <f t="shared" si="3"/>
         <v>UGANDA</v>
       </c>
       <c r="D232" s="13" t="s">
@@ -9798,7 +9798,7 @@
         <v>500</v>
       </c>
       <c r="C233" s="13" t="str">
-        <f>UPPER(B233)</f>
+        <f t="shared" si="3"/>
         <v>UKRAINE</v>
       </c>
       <c r="D233" s="13" t="s">
@@ -9813,7 +9813,7 @@
         <v>611</v>
       </c>
       <c r="C234" s="13" t="str">
-        <f>UPPER(B234)</f>
+        <f t="shared" si="3"/>
         <v>UNITED STATES MINOR OUTLYING ISLANDS</v>
       </c>
       <c r="D234" s="13" t="s">
@@ -9828,7 +9828,7 @@
         <v>470</v>
       </c>
       <c r="C235" s="13" t="str">
-        <f>UPPER(B235)</f>
+        <f t="shared" si="3"/>
         <v>URUGUAY</v>
       </c>
       <c r="D235" s="13" t="s">
@@ -9843,7 +9843,7 @@
         <v>160</v>
       </c>
       <c r="C236" s="13" t="str">
-        <f>UPPER(B236)</f>
+        <f t="shared" si="3"/>
         <v>UNITED STATES OF AMERICA</v>
       </c>
       <c r="D236" s="13" t="s">
@@ -9858,7 +9858,7 @@
         <v>485</v>
       </c>
       <c r="C237" s="13" t="str">
-        <f>UPPER(B237)</f>
+        <f t="shared" si="3"/>
         <v>UZBEKISTAN</v>
       </c>
       <c r="D237" s="13" t="s">
@@ -9873,7 +9873,7 @@
         <v>661</v>
       </c>
       <c r="C238" s="13" t="str">
-        <f>UPPER(B238)</f>
+        <f t="shared" si="3"/>
         <v>HOLY SEE</v>
       </c>
       <c r="D238" s="13" t="s">
@@ -9888,7 +9888,7 @@
         <v>77</v>
       </c>
       <c r="C239" s="13" t="str">
-        <f>UPPER(B239)</f>
+        <f t="shared" si="3"/>
         <v>SAINT VINCENT AND THE GRENADINES</v>
       </c>
       <c r="D239" s="13" t="s">
@@ -9903,7 +9903,7 @@
         <v>608</v>
       </c>
       <c r="C240" s="13" t="str">
-        <f>UPPER(B240)</f>
+        <f t="shared" si="3"/>
         <v>VENEZUELA (BOLIVARIAN REPUBLIC OF)</v>
       </c>
       <c r="D240" s="13" t="s">
@@ -9918,7 +9918,7 @@
         <v>740</v>
       </c>
       <c r="C241" s="13" t="str">
-        <f>UPPER(B241)</f>
+        <f t="shared" si="3"/>
         <v>VIRGIN ISLANDS (BRITISH)</v>
       </c>
       <c r="D241" s="13" t="s">
@@ -9933,7 +9933,7 @@
         <v>741</v>
       </c>
       <c r="C242" s="13" t="str">
-        <f>UPPER(B242)</f>
+        <f t="shared" si="3"/>
         <v>VIRGIN ISLANDS (U.S.)</v>
       </c>
       <c r="D242" s="13" t="s">
@@ -9948,7 +9948,7 @@
         <v>607</v>
       </c>
       <c r="C243" s="13" t="str">
-        <f>UPPER(B243)</f>
+        <f t="shared" si="3"/>
         <v>VIET NAM</v>
       </c>
       <c r="D243" s="13" t="s">
@@ -9963,7 +9963,7 @@
         <v>16</v>
       </c>
       <c r="C244" s="13" t="str">
-        <f>UPPER(B244)</f>
+        <f t="shared" si="3"/>
         <v>VANUATU</v>
       </c>
       <c r="D244" s="13" t="s">
@@ -9978,7 +9978,7 @@
         <v>742</v>
       </c>
       <c r="C245" s="13" t="str">
-        <f>UPPER(B245)</f>
+        <f t="shared" si="3"/>
         <v>WALLIS AND FUTUNA</v>
       </c>
       <c r="D245" s="13" t="s">
@@ -9993,7 +9993,7 @@
         <v>35</v>
       </c>
       <c r="C246" s="13" t="str">
-        <f>UPPER(B246)</f>
+        <f t="shared" si="3"/>
         <v>SAMOA</v>
       </c>
       <c r="D246" s="13" t="s">
@@ -10008,7 +10008,7 @@
         <v>135</v>
       </c>
       <c r="C247" s="13" t="str">
-        <f>UPPER(B247)</f>
+        <f t="shared" si="3"/>
         <v>YEMEN</v>
       </c>
       <c r="D247" s="13" t="s">
@@ -10023,7 +10023,7 @@
         <v>491</v>
       </c>
       <c r="C248" s="13" t="str">
-        <f>UPPER(B248)</f>
+        <f t="shared" si="3"/>
         <v>SOUTH AFRICA</v>
       </c>
       <c r="D248" s="13" t="s">
@@ -10038,7 +10038,7 @@
         <v>367</v>
       </c>
       <c r="C249" s="13" t="str">
-        <f>UPPER(B249)</f>
+        <f t="shared" si="3"/>
         <v>ZAMBIA</v>
       </c>
       <c r="D249" s="13" t="s">
@@ -10053,7 +10053,7 @@
         <v>289</v>
       </c>
       <c r="C250" s="13" t="str">
-        <f>UPPER(B250)</f>
+        <f t="shared" si="3"/>
         <v>ZIMBABWE</v>
       </c>
       <c r="D250" s="13" t="s">
@@ -10074,9 +10074,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="B1:C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="19.8"/>
   <cols>
